--- a/big-data/big-data-capstone/project/data/beer_n_Cass Lemon.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Cass Lemon.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GuideDogSaint(3,140)
+          <t>GuideDogSaint(3,141)
 🇨🇳Xiamen, China
 0.9June 11, 2015
 355ml can from Walmart, Xiamen. Pours yellow with a dissipating white head. Aroma of lemon with with underlying malt and corn. Sweet lemon finish. Not great.
@@ -635,7 +635,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,248)
 🇪🇪Tallinn, Estonia
 1.3June 5, 2013
 355ml can (Convenience store, Suwon)…
@@ -914,7 +914,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ratman197(23,244)
+          <t>Ratman197(23,252)
 🇺🇸Denver, United States
 3.0July 4, 2012
 1st American rating!  Can poured a clear yellow with a lasting white head. Aromas of lemon zest and light bread. Palate was light bodied and crisp with a dry finish. Flavors of lemon zest…
@@ -987,7 +987,7 @@
           <t>Palme(5,036)
 🇳🇴Bergen, Norway
 2.1May 7, 2012
-0.355l can. After spending a few months in my fridge, I guess it’s time to try this one. It pours a clear golden body with a small and heavy lacing white head. It smells kinda lemon-ish…
+0.355l can. After spending a few months in my fridge, I guess it’s time to try this one. It pours a clear golden body with a small and heavy lacing white head. It smells kinda lemon-ish and…
 Show more
 Aroma
 4
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joergen(39,716)
+          <t>joergen(39,740)
 🇩🇰Frederiksberg, Denmark
 1.7December 2, 2011
 Can at Papsø.
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,914)
 🇩🇰Citizen of the universe, Denmark
 1.5December 1, 2011
 Can. A hazy light yellow beer with a thin lazing off-white head. The aroma has notes of lemons. The flavor is sweet with notes of malt, lemon, and artificial sweetener, leading to a dry finish.…
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SHIG(11,157)
+          <t>SHIG(11,158)
 🇺🇸Hampton, United States
 2.8May 1, 2011
 Can: Poured a golden with a fluffy white head. Aroma is sweet with a hint of lemon juice. Taste is corny, grain with light lemon but not enough to take away from the refreshing grain.
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BelgianBeerGal(5,783)
+          <t>BelgianBeerGal(5,784)
 🇺🇸Panama City, United States
 1.7October 21, 2008
 33cl bottle in Songtan.  Not as bad as anticipated.  Certainly not great, but not offensive. Tastes like you took artificial lemon-lime flavouring and poured it into a macro lager.  It might…
